--- a/WLDemographics.xlsx
+++ b/WLDemographics.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ceharvey\Documents\Personal\School\Directed-Reading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_000\Documents\school\Directed-Reading\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7680"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Current Wait Pop" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -436,7 +436,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +692,7 @@
         <v>162</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" ref="P4:R9" si="7">Q4/$Q$2</f>
+        <f t="shared" ref="P4:P9" si="7">Q4/$Q$2</f>
         <v>0.15094339622641509</v>
       </c>
       <c r="Q4">
